--- a/excel_map2/Data.xlsx
+++ b/excel_map2/Data.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18730"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\work\github\order\country_excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gzy\Documents\GitHub\order\excel_map2\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="45" windowWidth="13995" windowHeight="5355" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="45" windowWidth="13995" windowHeight="5355" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tra" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="10">
     <numFmt numFmtId="176" formatCode="_-#,##0_-;\(#,##0\);_-\ \ &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="177" formatCode="_-#,##0.00_-;\(#,##0.00\);_-\ \ &quot;-&quot;_-;_-@_-"/>
@@ -254,54 +254,56 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="11" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="11" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="39">
-    <cellStyle name="?鹎%U龡&amp;H?_x0008__x001c__x001c_?_x0007__x0001__x0001_ 2" xfId="4"/>
-    <cellStyle name="@_text" xfId="7"/>
-    <cellStyle name="{Comma [0]}" xfId="8"/>
-    <cellStyle name="{Comma}" xfId="9"/>
-    <cellStyle name="{Date}" xfId="10"/>
-    <cellStyle name="{Month}" xfId="11"/>
-    <cellStyle name="{Percent}" xfId="12"/>
-    <cellStyle name="{Thousand [0]}" xfId="13"/>
-    <cellStyle name="{Thousand}" xfId="14"/>
-    <cellStyle name="{Z'0000(1 dec)}" xfId="15"/>
-    <cellStyle name="{Z'0000(4 dec)}" xfId="16"/>
-    <cellStyle name="Euro" xfId="17"/>
-    <cellStyle name="百分比 2" xfId="18"/>
-    <cellStyle name="百分比 2 2" xfId="19"/>
-    <cellStyle name="差_2002年调整表" xfId="20"/>
-    <cellStyle name="差_2007年调整表" xfId="21"/>
-    <cellStyle name="差_Sheet3" xfId="22"/>
-    <cellStyle name="差_Sheet3 2" xfId="23"/>
+    <cellStyle name="?鹎%U龡&amp;H?_x0008__x001c__x001c_?_x0007__x0001__x0001_ 2" xfId="4" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
+    <cellStyle name="@_text" xfId="7" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="{Comma [0]}" xfId="8" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="{Comma}" xfId="9" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
+    <cellStyle name="{Date}" xfId="10" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
+    <cellStyle name="{Month}" xfId="11" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
+    <cellStyle name="{Percent}" xfId="12" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
+    <cellStyle name="{Thousand [0]}" xfId="13" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
+    <cellStyle name="{Thousand}" xfId="14" xr:uid="{00000000-0005-0000-0000-000008000000}"/>
+    <cellStyle name="{Z'0000(1 dec)}" xfId="15" xr:uid="{00000000-0005-0000-0000-000009000000}"/>
+    <cellStyle name="{Z'0000(4 dec)}" xfId="16" xr:uid="{00000000-0005-0000-0000-00000A000000}"/>
+    <cellStyle name="Euro" xfId="17" xr:uid="{00000000-0005-0000-0000-00000B000000}"/>
+    <cellStyle name="百分比 2" xfId="18" xr:uid="{00000000-0005-0000-0000-00000C000000}"/>
+    <cellStyle name="百分比 2 2" xfId="19" xr:uid="{00000000-0005-0000-0000-00000D000000}"/>
+    <cellStyle name="差_2002年调整表" xfId="20" xr:uid="{00000000-0005-0000-0000-00000E000000}"/>
+    <cellStyle name="差_2007年调整表" xfId="21" xr:uid="{00000000-0005-0000-0000-00000F000000}"/>
+    <cellStyle name="差_Sheet3" xfId="22" xr:uid="{00000000-0005-0000-0000-000010000000}"/>
+    <cellStyle name="差_Sheet3 2" xfId="23" xr:uid="{00000000-0005-0000-0000-000011000000}"/>
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="常规 10" xfId="1"/>
-    <cellStyle name="常规 2" xfId="3"/>
-    <cellStyle name="常规 2 2" xfId="24"/>
-    <cellStyle name="常规 2 3" xfId="34"/>
-    <cellStyle name="常规 2_2002年调整表" xfId="25"/>
-    <cellStyle name="常规 3" xfId="6"/>
-    <cellStyle name="常规 3 2" xfId="31"/>
-    <cellStyle name="常规 3 3" xfId="35"/>
-    <cellStyle name="常规 4" xfId="5"/>
-    <cellStyle name="常规 4 2" xfId="36"/>
-    <cellStyle name="常规 5" xfId="30"/>
-    <cellStyle name="常规 6" xfId="32"/>
-    <cellStyle name="常规 7" xfId="2"/>
-    <cellStyle name="常规 8" xfId="33"/>
-    <cellStyle name="常规 9" xfId="37"/>
-    <cellStyle name="超链接 2" xfId="38"/>
-    <cellStyle name="好_2002年调整表" xfId="26"/>
-    <cellStyle name="好_2007年调整表" xfId="27"/>
-    <cellStyle name="好_Sheet3" xfId="28"/>
-    <cellStyle name="好_Sheet3 2" xfId="29"/>
+    <cellStyle name="常规 10" xfId="1" xr:uid="{00000000-0005-0000-0000-000013000000}"/>
+    <cellStyle name="常规 2" xfId="3" xr:uid="{00000000-0005-0000-0000-000014000000}"/>
+    <cellStyle name="常规 2 2" xfId="24" xr:uid="{00000000-0005-0000-0000-000015000000}"/>
+    <cellStyle name="常规 2 3" xfId="34" xr:uid="{00000000-0005-0000-0000-000016000000}"/>
+    <cellStyle name="常规 2_2002年调整表" xfId="25" xr:uid="{00000000-0005-0000-0000-000017000000}"/>
+    <cellStyle name="常规 3" xfId="6" xr:uid="{00000000-0005-0000-0000-000018000000}"/>
+    <cellStyle name="常规 3 2" xfId="31" xr:uid="{00000000-0005-0000-0000-000019000000}"/>
+    <cellStyle name="常规 3 3" xfId="35" xr:uid="{00000000-0005-0000-0000-00001A000000}"/>
+    <cellStyle name="常规 4" xfId="5" xr:uid="{00000000-0005-0000-0000-00001B000000}"/>
+    <cellStyle name="常规 4 2" xfId="36" xr:uid="{00000000-0005-0000-0000-00001C000000}"/>
+    <cellStyle name="常规 5" xfId="30" xr:uid="{00000000-0005-0000-0000-00001D000000}"/>
+    <cellStyle name="常规 6" xfId="32" xr:uid="{00000000-0005-0000-0000-00001E000000}"/>
+    <cellStyle name="常规 7" xfId="2" xr:uid="{00000000-0005-0000-0000-00001F000000}"/>
+    <cellStyle name="常规 8" xfId="33" xr:uid="{00000000-0005-0000-0000-000020000000}"/>
+    <cellStyle name="常规 9" xfId="37" xr:uid="{00000000-0005-0000-0000-000021000000}"/>
+    <cellStyle name="超链接 2" xfId="38" xr:uid="{00000000-0005-0000-0000-000022000000}"/>
+    <cellStyle name="好_2002年调整表" xfId="26" xr:uid="{00000000-0005-0000-0000-000023000000}"/>
+    <cellStyle name="好_2007年调整表" xfId="27" xr:uid="{00000000-0005-0000-0000-000024000000}"/>
+    <cellStyle name="好_Sheet3" xfId="28" xr:uid="{00000000-0005-0000-0000-000025000000}"/>
+    <cellStyle name="好_Sheet3 2" xfId="29" xr:uid="{00000000-0005-0000-0000-000026000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -636,11 +638,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B30"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:B31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:B30"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -885,6 +887,14 @@
         <v>1.2001599429694198E+18</v>
       </c>
     </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A31" s="4">
+        <v>0</v>
+      </c>
+      <c r="B31" s="4">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="12" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -892,16 +902,20 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AD30"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:AE31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+    <sheetView topLeftCell="N1" workbookViewId="0">
+      <selection activeCell="AC11" sqref="AC11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="20" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="9.5" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:30" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:31" x14ac:dyDescent="0.15">
       <c r="A1" s="3">
         <v>5.8272791025794304E+18</v>
       </c>
@@ -992,8 +1006,11 @@
       <c r="AD1" s="3">
         <v>4.3325967304970304E+16</v>
       </c>
-    </row>
-    <row r="2" spans="1:30" x14ac:dyDescent="0.15">
+      <c r="AE1" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:31" x14ac:dyDescent="0.15">
       <c r="A2" s="3">
         <v>4.3878912235388102E+17</v>
       </c>
@@ -1084,8 +1101,11 @@
       <c r="AD2" s="3">
         <v>1.50944204819585E+16</v>
       </c>
-    </row>
-    <row r="3" spans="1:30" x14ac:dyDescent="0.15">
+      <c r="AE2" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:31" x14ac:dyDescent="0.15">
       <c r="A3" s="3">
         <v>5.7511020842925798E+17</v>
       </c>
@@ -1176,8 +1196,11 @@
       <c r="AD3" s="3">
         <v>7.8764396748307904E+16</v>
       </c>
-    </row>
-    <row r="4" spans="1:30" x14ac:dyDescent="0.15">
+      <c r="AE3" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:31" x14ac:dyDescent="0.15">
       <c r="A4" s="3">
         <v>1.42680912905139E+18</v>
       </c>
@@ -1268,8 +1291,11 @@
       <c r="AD4" s="3">
         <v>7347099868827050</v>
       </c>
-    </row>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.15">
+      <c r="AE4" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:31" x14ac:dyDescent="0.15">
       <c r="A5" s="3">
         <v>2.12033048703315E+18</v>
       </c>
@@ -1360,8 +1386,11 @@
       <c r="AD5" s="3">
         <v>7.93368708140672E+16</v>
       </c>
-    </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.15">
+      <c r="AE5" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:31" x14ac:dyDescent="0.15">
       <c r="A6" s="3">
         <v>2.2969970307646E+17</v>
       </c>
@@ -1452,8 +1481,11 @@
       <c r="AD6" s="3">
         <v>5.90159466238148E+16</v>
       </c>
-    </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.15">
+      <c r="AE6" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:31" x14ac:dyDescent="0.15">
       <c r="A7" s="3">
         <v>8.3516619541148304E+16</v>
       </c>
@@ -1544,8 +1576,11 @@
       <c r="AD7" s="3">
         <v>2.96225935059141E+16</v>
       </c>
-    </row>
-    <row r="8" spans="1:30" x14ac:dyDescent="0.15">
+      <c r="AE7" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:31" x14ac:dyDescent="0.15">
       <c r="A8" s="3">
         <v>1.1216449175570301E+17</v>
       </c>
@@ -1636,8 +1671,11 @@
       <c r="AD8" s="3">
         <v>3.25286206466993E+16</v>
       </c>
-    </row>
-    <row r="9" spans="1:30" x14ac:dyDescent="0.15">
+      <c r="AE8" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:31" x14ac:dyDescent="0.15">
       <c r="A9" s="3">
         <v>1.4533679554043299E+17</v>
       </c>
@@ -1728,8 +1766,11 @@
       <c r="AD9" s="3">
         <v>7.6808949421586896E+16</v>
       </c>
-    </row>
-    <row r="10" spans="1:30" x14ac:dyDescent="0.15">
+      <c r="AE9" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:31" x14ac:dyDescent="0.15">
       <c r="A10" s="3">
         <v>2.1721827204648301E+17</v>
       </c>
@@ -1820,8 +1861,11 @@
       <c r="AD10" s="3">
         <v>1.85813709868744E+17</v>
       </c>
-    </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.15">
+      <c r="AE10" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:31" x14ac:dyDescent="0.15">
       <c r="A11" s="3">
         <v>1.01802995053772E+17</v>
       </c>
@@ -1912,8 +1956,11 @@
       <c r="AD11" s="3">
         <v>7.7374321442928992E+16</v>
       </c>
-    </row>
-    <row r="12" spans="1:30" x14ac:dyDescent="0.15">
+      <c r="AE11" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:31" x14ac:dyDescent="0.15">
       <c r="A12" s="3">
         <v>1.4915980936059802E+17</v>
       </c>
@@ -2004,8 +2051,11 @@
       <c r="AD12" s="3">
         <v>5.5619440843104704E+16</v>
       </c>
-    </row>
-    <row r="13" spans="1:30" x14ac:dyDescent="0.15">
+      <c r="AE12" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:31" x14ac:dyDescent="0.15">
       <c r="A13" s="3">
         <v>1.56925602163687E+16</v>
       </c>
@@ -2096,8 +2146,11 @@
       <c r="AD13" s="3">
         <v>1.40008882326423E+16</v>
       </c>
-    </row>
-    <row r="14" spans="1:30" x14ac:dyDescent="0.15">
+      <c r="AE13" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:31" x14ac:dyDescent="0.15">
       <c r="A14" s="3">
         <v>2.24858777259138E+16</v>
       </c>
@@ -2188,8 +2241,11 @@
       <c r="AD14" s="3">
         <v>1.28207556716912E+16</v>
       </c>
-    </row>
-    <row r="15" spans="1:30" x14ac:dyDescent="0.15">
+      <c r="AE14" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:31" x14ac:dyDescent="0.15">
       <c r="A15" s="3">
         <v>2.4139086755718499E+17</v>
       </c>
@@ -2280,8 +2336,11 @@
       <c r="AD15" s="3">
         <v>3.98393165568766E+16</v>
       </c>
-    </row>
-    <row r="16" spans="1:30" x14ac:dyDescent="0.15">
+      <c r="AE15" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:31" x14ac:dyDescent="0.15">
       <c r="A16" s="3">
         <v>1.8373373090653402E+17</v>
       </c>
@@ -2372,8 +2431,11 @@
       <c r="AD16" s="3">
         <v>6.3705481310832096E+16</v>
       </c>
-    </row>
-    <row r="17" spans="1:30" x14ac:dyDescent="0.15">
+      <c r="AE16" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:31" x14ac:dyDescent="0.15">
       <c r="A17" s="3">
         <v>8408552184864610</v>
       </c>
@@ -2464,8 +2526,11 @@
       <c r="AD17" s="3">
         <v>7150509477317010</v>
       </c>
-    </row>
-    <row r="18" spans="1:30" x14ac:dyDescent="0.15">
+      <c r="AE17" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:31" x14ac:dyDescent="0.15">
       <c r="A18" s="3">
         <v>4.5385502835019504E+16</v>
       </c>
@@ -2556,8 +2621,11 @@
       <c r="AD18" s="3">
         <v>3.7937120364901504E+16</v>
       </c>
-    </row>
-    <row r="19" spans="1:30" x14ac:dyDescent="0.15">
+      <c r="AE18" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:31" x14ac:dyDescent="0.15">
       <c r="A19" s="3">
         <v>9.5337896142125904E+16</v>
       </c>
@@ -2648,8 +2716,11 @@
       <c r="AD19" s="3">
         <v>6.4178091632648E+16</v>
       </c>
-    </row>
-    <row r="20" spans="1:30" x14ac:dyDescent="0.15">
+      <c r="AE19" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:31" x14ac:dyDescent="0.15">
       <c r="A20" s="3">
         <v>1.43134141276094E+16</v>
       </c>
@@ -2740,8 +2811,11 @@
       <c r="AD20" s="3">
         <v>1.216945755417E+16</v>
       </c>
-    </row>
-    <row r="21" spans="1:30" x14ac:dyDescent="0.15">
+      <c r="AE20" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:31" x14ac:dyDescent="0.15">
       <c r="A21" s="3">
         <v>9072989049896500</v>
       </c>
@@ -2832,8 +2906,11 @@
       <c r="AD21" s="3">
         <v>5998492594476420</v>
       </c>
-    </row>
-    <row r="22" spans="1:30" x14ac:dyDescent="0.15">
+      <c r="AE21" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:31" x14ac:dyDescent="0.15">
       <c r="A22" s="3">
         <v>3.36501999649554E+16</v>
       </c>
@@ -2924,8 +3001,11 @@
       <c r="AD22" s="3">
         <v>3.90905388173798E+16</v>
       </c>
-    </row>
-    <row r="23" spans="1:30" x14ac:dyDescent="0.15">
+      <c r="AE22" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:31" x14ac:dyDescent="0.15">
       <c r="A23" s="3">
         <v>2.38289860708932E+16</v>
       </c>
@@ -3016,8 +3096,11 @@
       <c r="AD23" s="3">
         <v>2.18938917949565E+16</v>
       </c>
-    </row>
-    <row r="24" spans="1:30" x14ac:dyDescent="0.15">
+      <c r="AE23" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:31" x14ac:dyDescent="0.15">
       <c r="A24" s="3">
         <v>4.91454646259884E+16</v>
       </c>
@@ -3108,8 +3191,11 @@
       <c r="AD24" s="3">
         <v>1.5575001855906E+16</v>
       </c>
-    </row>
-    <row r="25" spans="1:30" x14ac:dyDescent="0.15">
+      <c r="AE24" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:31" x14ac:dyDescent="0.15">
       <c r="A25" s="3">
         <v>3.7265024880645504E+16</v>
       </c>
@@ -3200,8 +3286,11 @@
       <c r="AD25" s="3">
         <v>2.15158344542497E+16</v>
       </c>
-    </row>
-    <row r="26" spans="1:30" x14ac:dyDescent="0.15">
+      <c r="AE25" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:31" x14ac:dyDescent="0.15">
       <c r="A26" s="3">
         <v>3.0242956129258502E+17</v>
       </c>
@@ -3292,8 +3381,11 @@
       <c r="AD26" s="3">
         <v>4.33754628512602E+16</v>
       </c>
-    </row>
-    <row r="27" spans="1:30" x14ac:dyDescent="0.15">
+      <c r="AE26" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:31" x14ac:dyDescent="0.15">
       <c r="A27" s="3">
         <v>7.4339048405066896E+16</v>
       </c>
@@ -3384,8 +3476,11 @@
       <c r="AD27" s="3">
         <v>3.34859388808378E+16</v>
       </c>
-    </row>
-    <row r="28" spans="1:30" x14ac:dyDescent="0.15">
+      <c r="AE27" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:31" x14ac:dyDescent="0.15">
       <c r="A28" s="3">
         <v>5491904340081600</v>
       </c>
@@ -3476,8 +3571,11 @@
       <c r="AD28" s="3">
         <v>6406249917497300</v>
       </c>
-    </row>
-    <row r="29" spans="1:30" x14ac:dyDescent="0.15">
+      <c r="AE28" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:31" x14ac:dyDescent="0.15">
       <c r="A29" s="3">
         <v>1.7924998195676998E+17</v>
       </c>
@@ -3568,8 +3666,11 @@
       <c r="AD29" s="3">
         <v>2.03645734308533E+16</v>
       </c>
-    </row>
-    <row r="30" spans="1:30" x14ac:dyDescent="0.15">
+      <c r="AE29" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:31" x14ac:dyDescent="0.15">
       <c r="A30" s="3">
         <v>5.56192259035536E+16</v>
       </c>
@@ -3659,16 +3760,115 @@
       </c>
       <c r="AD30" s="3">
         <v>1.1687520019034401E+19</v>
+      </c>
+      <c r="AE30" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:31" x14ac:dyDescent="0.15">
+      <c r="A31" s="5">
+        <v>0</v>
+      </c>
+      <c r="B31" s="5">
+        <v>0</v>
+      </c>
+      <c r="C31" s="5">
+        <v>0</v>
+      </c>
+      <c r="D31" s="5">
+        <v>0</v>
+      </c>
+      <c r="E31" s="5">
+        <v>0</v>
+      </c>
+      <c r="F31" s="5">
+        <v>0</v>
+      </c>
+      <c r="G31" s="5">
+        <v>0</v>
+      </c>
+      <c r="H31" s="5">
+        <v>0</v>
+      </c>
+      <c r="I31" s="5">
+        <v>0</v>
+      </c>
+      <c r="J31" s="5">
+        <v>0</v>
+      </c>
+      <c r="K31" s="5">
+        <v>0</v>
+      </c>
+      <c r="L31" s="5">
+        <v>0</v>
+      </c>
+      <c r="M31" s="5">
+        <v>0</v>
+      </c>
+      <c r="N31" s="5">
+        <v>0</v>
+      </c>
+      <c r="O31" s="5">
+        <v>0</v>
+      </c>
+      <c r="P31" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q31" s="5">
+        <v>0</v>
+      </c>
+      <c r="R31" s="5">
+        <v>0</v>
+      </c>
+      <c r="S31" s="5">
+        <v>0</v>
+      </c>
+      <c r="T31" s="5">
+        <v>0</v>
+      </c>
+      <c r="U31" s="5">
+        <v>0</v>
+      </c>
+      <c r="V31" s="5">
+        <v>0</v>
+      </c>
+      <c r="W31" s="5">
+        <v>0</v>
+      </c>
+      <c r="X31" s="5">
+        <v>0</v>
+      </c>
+      <c r="Y31" s="5">
+        <v>0</v>
+      </c>
+      <c r="Z31" s="5">
+        <v>0</v>
+      </c>
+      <c r="AA31" s="5">
+        <v>0</v>
+      </c>
+      <c r="AB31" s="5">
+        <v>0</v>
+      </c>
+      <c r="AC31" s="5">
+        <v>0</v>
+      </c>
+      <c r="AD31" s="5">
+        <v>0</v>
+      </c>
+      <c r="AE31" s="5">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="12" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
